--- a/backend/Data/hrms.xlsx
+++ b/backend/Data/hrms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,6 +777,168 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-04-15 23:29:21</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Actively seeking redeployment / difficulty in redeploying</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Studying for entrance, not wanting to pursue through edu@University</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>No issues</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Getting DIP payment next month</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Failed to clear growth opportunity more than once</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Problems...able to cope with difficulty</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Mentioned wanting onsite job...challenge with high travel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-04-15 23:35:51</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No issues</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No issues</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No issues</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charlie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:30:35</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No issues</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Not received VIC in the last 3 months</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
